--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3343479.533478511</v>
+        <v>3337757.921510625</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8381429.713964873</v>
+        <v>8381429.713964872</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.44771726708234</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>70.16412780162798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>79.0970521767109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>17.02555585116021</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>19.47749871112554</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.32873841396652</v>
       </c>
       <c r="V7" t="n">
-        <v>85.87170836083649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.66290552424916</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>62.62994551992921</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>190.3001368141499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.88877949312959</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>96.50675189249552</v>
       </c>
       <c r="V13" t="n">
-        <v>99.78366635921675</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>42.76843874739671</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>223.3842646419936</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.03974637000153</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>10.79706719888489</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>29.05592156403807</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>249.1116301230731</v>
+        <v>14.20188851094988</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>64.7844614365943</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.10725580110004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.43296932554458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.0405042646298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.9951719589016</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.817396039519035</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>35.1956961965008</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.8228810500187</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>137.6551342928052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1075.055971578407</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>689.2677189801632</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>278.2818141905556</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782191</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782191</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.00952757579</v>
+        <v>2075.803581887074</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1706.841064946662</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1348.575366339912</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>962.7871137416676</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>551.8012089520601</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2622.446160426367</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2622.446160426367</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2291.383273082796</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1938.614617812681</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1565.148859551602</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1175.00952757579</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V7" t="n">
-        <v>641.3898848520539</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>825.721251757727</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>467.4555531509765</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>81.66730055273229</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>535.9066237881011</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>535.9066237881011</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511405</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,52 +5020,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1364.144379432265</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.069814334827</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>637.1336314069201</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>487.0169919945844</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1858.861898536526</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.851944376374</v>
+        <v>1858.861898536526</v>
       </c>
       <c r="W13" t="n">
-        <v>1254.851944376374</v>
+        <v>1569.444728499566</v>
       </c>
       <c r="X13" t="n">
-        <v>1026.862393478357</v>
+        <v>1341.455177601548</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.069814334827</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
@@ -5281,19 +5281,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>932.5990189467736</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600128</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272053</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330835</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107236</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5357,16 +5357,16 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5396,13 +5396,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>489.220537824527</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C16" t="n">
-        <v>489.220537824527</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1227.419837903035</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1227.419837903035</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W16" t="n">
-        <v>938.0026678660745</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X16" t="n">
-        <v>710.0131169680571</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y16" t="n">
-        <v>489.220537824527</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>838.2368056224234</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>669.3006226945165</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>669.3006226945165</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>521.3875291121234</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>374.497581614213</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1355.643526557401</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1066.226356520441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>838.2368056224234</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>838.2368056224234</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,73 +5731,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1040.987899283234</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1905.506714936589</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2439.038619608514</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667297</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367487</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.08900508636</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425109</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279156</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358042</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152509</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387555</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>812.5159046014979</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C22" t="n">
-        <v>812.5159046014979</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
         <v>339.1038984121913</v>
@@ -5907,22 +5907,22 @@
         <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5937,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987876</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781989</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>1134.608226662977</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.308483745028</v>
+        <v>1134.608226662977</v>
       </c>
       <c r="Y22" t="n">
-        <v>812.5159046014979</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,19 +5974,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.197749519704</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.950021746351</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3480.327537565076</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>3480.327537565076</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3330.210898152741</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4496.535381004075</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>4207.432514129719</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>3952.748025923832</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>3701.120116708606</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>3701.120116708606</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>3480.327537565076</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3379.31260797137</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C28" t="n">
-        <v>3210.376425043463</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D28" t="n">
-        <v>3210.376425043463</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>3210.376425043463</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>3063.486477545553</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545553</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816072</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>4299.160372880118</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>4299.160372880118</v>
+        <v>1745.707322286463</v>
       </c>
       <c r="W28" t="n">
-        <v>4009.743202843158</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X28" t="n">
-        <v>3781.75365194514</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y28" t="n">
-        <v>3560.96107280161</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2649.230460361821</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.6246893481011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>558.6885064201942</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>408.5718670078585</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>408.5718670078585</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>261.6819195099481</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>261.6819195099481</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2731541783409</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.2731541783409</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.517445238747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>964.3709295897388</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>964.3709295897388</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.1659100689867</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3027.59632740215</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3907.560977731604</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4302.335344088782</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,16 +7028,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142067</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282341</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.069814334827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>637.1336314069201</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>487.0169919945844</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.789495593986</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>987.7182791650667</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>987.7182791650667</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3070.887536710052</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3573.860007589389</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3479.484139738398</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C40" t="n">
-        <v>3310.547956810492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3310.547956810492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3310.547956810492</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3163.658009312581</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.599222816072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4364.599222816072</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>4109.914734610185</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>4109.914734610185</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>3881.925183712168</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>3661.132604568638</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7408,25 +7408,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867998</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107236</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
@@ -7487,16 +7487,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>360.5895482553301</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C43" t="n">
-        <v>360.5895482553301</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="D43" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>770.2275639835872</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X43" t="n">
-        <v>542.2380130855698</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.2380130855698</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>317.5146261106135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>226.7688596193103</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>148.4180109385406</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>89.52456338961838</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>257.9017284501154</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
-        <v>136.2499899971297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>126.3855966773232</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480845</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.1140909277318</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>294.8707872801651</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>374.1693948021953</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>411.0304280898994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>189.7050863131174</v>
       </c>
       <c r="V13" t="n">
-        <v>152.3539769646113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>137.0635414345406</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>62.82757356361927</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>130.9860618890267</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.8184058193275</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>257.4670767725529</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.4113682135179</v>
+        <v>272.3211098256411</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>221.4273767690186</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>43.60786094376948</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>76.64775911322074</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1516840265502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>126.486218812281</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.66915112440736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>163.2084122195092</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>183.388957155594</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.79259196819369</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>148.8678640437858</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>92.48912964370378</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712248.7054417304</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="F2" t="n">
+        <v>694893.1270522203</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="J2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="N2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="I2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>694893.1270522204</v>
-      </c>
-      <c r="N2" t="n">
-        <v>694893.1270522202</v>
-      </c>
       <c r="O2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522205</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26450,16 +26450,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-137764.0955038343</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107104</v>
+        <v>452203.7837107105</v>
       </c>
       <c r="D6" t="n">
-        <v>452203.7837107103</v>
+        <v>452203.7837107108</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.2975140894</v>
+        <v>-147688.2524163478</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.116479317</v>
+        <v>579689.1615770588</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.1164793168</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793167</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.1164793174</v>
+        <v>579689.161577059</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867239</v>
+        <v>403265.9423844662</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="L6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.161577059</v>
       </c>
       <c r="M6" t="n">
-        <v>450718.8016403723</v>
+        <v>450046.8467381143</v>
       </c>
       <c r="N6" t="n">
-        <v>580361.1164793166</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="O6" t="n">
-        <v>580361.1164793167</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="P6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770591</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.8251745039252</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>343.620042219167</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263364</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>146.6126032123262</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>396.7586141696348</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>196.9708216465322</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>191.9531358280112</v>
       </c>
       <c r="V7" t="n">
-        <v>166.2659349629915</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2131402174623</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>307.1011551585398</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>95.98173742782788</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.2488638306984</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>753.4190306414129</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>654.705912666014</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>682.3589740116424</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35886,22 +35886,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>485.6092974939411</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>628.4456792198451</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>595.0930150055161</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427828</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509648</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
-        <v>675.1711058273564</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>581.9757110696554</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>854.0890375411587</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690641</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>420.9083957314513</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>693.6327734995367</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>926.4712302151065</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
@@ -38028,19 +38028,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>963.3322635028109</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3337757.921510625</v>
+        <v>3341163.412635074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>70.16412780162798</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>68.62266944571569</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>189.5968436493441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>17.02555585116021</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>301.0462453066053</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>94.32873841396652</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.4876658745442</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.66290552424916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.88877949312959</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>96.50675189249552</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>12.0628961963217</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.76843874739671</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>140.8578496677054</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>29.05592156403807</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>14.20188851094988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>77.31354443380485</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.1956961965008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8228810500187</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>94.87954332650972</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>7.601081015447715</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1075.055971578407</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C2" t="n">
-        <v>1075.055971578407</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="D2" t="n">
-        <v>1075.055971578407</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="E2" t="n">
-        <v>689.2677189801632</v>
+        <v>144.1277143539222</v>
       </c>
       <c r="F2" t="n">
-        <v>278.2818141905556</v>
+        <v>137.1822136047187</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>123.2588095433096</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>123.2588095433096</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.055971578407</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4521,13 +4521,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.803581887074</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.841064946662</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.575366339912</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>962.7871137416676</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>551.8012089520601</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>825.721251757727</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>467.4555531509765</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>81.66730055273229</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>617.0062271882081</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1858.861898536526</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.861898536526</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.444728499566</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.455177601548</v>
+        <v>1217.170129739252</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.662598458018</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
@@ -5281,19 +5281,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814245</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644074</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870721</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107236</v>
@@ -5320,10 +5320,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.8067350374723</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1288.206478295169</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>998.7893082582084</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>770.7997573601911</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.0071782166609</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5518,22 +5518,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862918</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
@@ -5597,7 +5597,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5612,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.9597618327374</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>784.0235789048305</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W22" t="n">
-        <v>1134.608226662977</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.608226662977</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>1134.608226662977</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>894.9278122480885</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500711</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.145682206541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,7 +6335,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6344,7 +6344,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.859557377715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,16 +6387,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1745.707322286463</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W28" t="n">
-        <v>1456.290152249502</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X28" t="n">
-        <v>1228.300601351485</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.508022207955</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6706,46 +6706,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,7 +6885,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
         <v>1559.196154437386</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001593</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,46 +6943,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7040,16 +7040,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.9043113423046</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C37" t="n">
-        <v>260.9043113423046</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D37" t="n">
-        <v>260.9043113423046</v>
+        <v>173.65552377547</v>
       </c>
       <c r="E37" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>114.0143638443942</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0143638443942</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="38">
@@ -7180,16 +7180,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262337</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679677</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.145682206541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>368.3587133864212</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>199.4225304585143</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582084</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601911</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.0071782166609</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,7 +7648,7 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,10 +7760,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
         <v>1554.419908487875</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>226.7688596193103</v>
+        <v>229.1155640189929</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>89.52456338961838</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>169.5026663584964</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>285.7011105564197</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>189.7050863131174</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>206.5217571557731</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.0635414345406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>84.85180572133177</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>257.4670767725529</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.3211098256411</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276432</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>126.486218812281</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.388957155594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.79259196819369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>123.7051100255851</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="11">
@@ -26316,43 +26316,43 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.1270522203</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="I2" t="n">
-        <v>694893.1270522204</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="J2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="K2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="L2" t="n">
         <v>694893.1270522205</v>
-      </c>
-      <c r="L2" t="n">
-        <v>694893.1270522204</v>
       </c>
       <c r="M2" t="n">
         <v>694893.1270522205</v>
       </c>
       <c r="N2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="O2" t="n">
         <v>694893.1270522206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>694893.1270522205</v>
       </c>
       <c r="P2" t="n">
         <v>694893.1270522205</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.686857128</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
     </row>
     <row r="5">
@@ -26499,10 +26499,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038343</v>
+        <v>-137764.0955038342</v>
       </c>
       <c r="C6" t="n">
+        <v>452203.7837107104</v>
+      </c>
+      <c r="D6" t="n">
         <v>452203.7837107105</v>
       </c>
-      <c r="D6" t="n">
-        <v>452203.7837107108</v>
-      </c>
       <c r="E6" t="n">
-        <v>-147688.2524163478</v>
+        <v>-147083.4930043156</v>
       </c>
       <c r="F6" t="n">
-        <v>579689.1615770588</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="G6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.920989091</v>
       </c>
       <c r="H6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="I6" t="n">
-        <v>579689.161577059</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="J6" t="n">
-        <v>403265.9423844662</v>
+        <v>403870.7017964981</v>
       </c>
       <c r="K6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="L6" t="n">
-        <v>579689.161577059</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="M6" t="n">
-        <v>450046.8467381143</v>
+        <v>450651.6061501465</v>
       </c>
       <c r="N6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="O6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="P6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890912</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>343.620042219167</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>83.30864679914556</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.68503059263364</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>96.68503059263361</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>396.7586141696348</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>48.19472341080774</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>191.9531358280112</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204677</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.2131402174623</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>224.6860133799318</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>171.2488638306984</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-7.536923714932599e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>682.3589740116424</v>
+        <v>684.705678411325</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35664,7 +35664,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35886,13 +35886,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>628.4456792198451</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35901,10 +35901,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>568.2646525778682</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859626</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2912249487518</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,10 +37557,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
